--- a/catalogo-de-dados_anatel_scm.xlsx
+++ b/catalogo-de-dados_anatel_scm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://timbrasil-my.sharepoint.com/personal/rbomfim_timbrasil_com_br/Documents/Documents/PESSOAL/Puc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{DAE30BF8-F80C-49BB-A8A9-2BC107080AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F79A9A2-5BF6-4591-926E-1061C76BF5B6}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{BC4C1CED-AD0C-4C57-9B79-022D4A2C7599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B99669-027B-4A41-B40E-11B3D9607506}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="502" xr2:uid="{2207EC8D-DFDB-49AE-B46B-59699781E2DD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Ano_Mes_Oper_codIBGE</t>
   </si>
@@ -78,18 +78,6 @@
     <t>Nro_de_Medidas</t>
   </si>
   <si>
-    <t>Limite_Inferior</t>
-  </si>
-  <si>
-    <t>Limite_Superior</t>
-  </si>
-  <si>
-    <t>Valor_Ref_Inferior</t>
-  </si>
-  <si>
-    <t>Valor_Ref_Superior</t>
-  </si>
-  <si>
     <t>num_acessos</t>
   </si>
   <si>
@@ -124,12 +112,6 @@
   </si>
   <si>
     <t>percentual de medidas que atingem o valor de referência da tabela de corte</t>
-  </si>
-  <si>
-    <t>Resultado das medidas menos o erro amostral</t>
-  </si>
-  <si>
-    <t>Resultado das medidas mais o erro amostral</t>
   </si>
   <si>
     <t>string</t>
@@ -167,12 +149,6 @@
 -IND7 ( Perda de Pacotes da Conexão de Dados) Expressa a capacidade da rede de entregar os pacotes de dados ao destino sem ocorrência de perdas
 -IND8 (Disponibilidade) Expressa o tempo em que o serviço está em operação, à disposição dos usuários sem interrupção
  - IND9 (Cumprimento de Prazo) - Expressa o atendimento a solicitações de instalação, reparo e mudança de endereço realizados dentro dos prazos agendados </t>
-  </si>
-  <si>
-    <t>Valor minimo para qualidade do indicador</t>
-  </si>
-  <si>
-    <t>Valor máximo para qualidade do indicador</t>
   </si>
 </sst>
 </file>
@@ -265,12 +241,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -664,28 +639,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8E45F1-2987-4699-84DF-534B3C23BEA3}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="85.81640625" customWidth="1"/>
+    <col min="2" max="2" width="102.6328125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -693,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -707,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -715,32 +690,32 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
+      <c r="B6" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -748,10 +723,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -759,10 +734,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -770,10 +745,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -781,120 +756,76 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +841,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C23" sqref="C23:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/catalogo-de-dados_anatel_scm.xlsx
+++ b/catalogo-de-dados_anatel_scm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://timbrasil-my.sharepoint.com/personal/rbomfim_timbrasil_com_br/Documents/Documents/PESSOAL/Puc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://timbrasil-my.sharepoint.com/personal/rbomfim_timbrasil_com_br/Documents/Documents/PESSOAL/Puc/entrega/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{BC4C1CED-AD0C-4C57-9B79-022D4A2C7599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B99669-027B-4A41-B40E-11B3D9607506}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{BC4C1CED-AD0C-4C57-9B79-022D4A2C7599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F17156-1A31-4236-ACF0-F2E9903D2D91}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="502" xr2:uid="{2207EC8D-DFDB-49AE-B46B-59699781E2DD}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>num_solicitacoes</t>
   </si>
   <si>
-    <t xml:space="preserve">número de clientes </t>
-  </si>
-  <si>
     <t>número de reclamações técnicas na Anatel</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
 -IND7 ( Perda de Pacotes da Conexão de Dados) Expressa a capacidade da rede de entregar os pacotes de dados ao destino sem ocorrência de perdas
 -IND8 (Disponibilidade) Expressa o tempo em que o serviço está em operação, à disposição dos usuários sem interrupção
  - IND9 (Cumprimento de Prazo) - Expressa o atendimento a solicitações de instalação, reparo e mudança de endereço realizados dentro dos prazos agendados </t>
+  </si>
+  <si>
+    <t>número de clientes banda larga fixa total</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -654,13 +654,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -690,10 +690,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -701,10 +701,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="174" x14ac:dyDescent="0.35">
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -723,10 +723,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -734,10 +734,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -745,10 +745,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -756,10 +756,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -767,10 +767,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -778,10 +778,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -789,10 +789,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -800,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -811,10 +811,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -822,10 +822,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
